--- a/planilha_padrao_atualizada.xlsx
+++ b/planilha_padrao_atualizada.xlsx
@@ -757,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>20</v>
@@ -769,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -883,7 +883,7 @@
         <v>100</v>
       </c>
       <c r="O5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -997,7 +997,7 @@
         <v>100</v>
       </c>
       <c r="O6" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>100</v>
       </c>
       <c r="O7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1225,7 +1225,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1339,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1453,7 +1453,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1567,7 +1567,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1681,7 +1681,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1795,7 +1795,7 @@
         <v>100</v>
       </c>
       <c r="O13" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
